--- a/data/trans_orig/Q20C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q20C-Habitat-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,69</t>
+          <t>8,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,28</t>
+          <t>8,64</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>6,72</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,66</t>
+          <t>6,51</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,27</t>
+          <t>8,73</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>5,85</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8,16</t>
+          <t>7,74</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>7,6</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,7; 16,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,63; 7,08</t>
+          <t>4,96; 15,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,6; 24,86</t>
+          <t>5,08; 15,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 8,43</t>
+          <t>3,32; 17,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,53</t>
+          <t>1,93; 6,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,69</t>
+          <t>2,5; 5,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,0; 12,0</t>
+          <t>3,65; 12,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,0; 24,0</t>
+          <t>4,13; 21,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,53</t>
+          <t>2,6; 8,94</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,2</t>
+          <t>4,0; 9,37</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,22; 20,15</t>
+          <t>5,34; 12,43</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,9; 11,92</t>
+          <t>4,49; 14,34</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,71</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,91</t>
+          <t>5,38</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,96</t>
+          <t>6,8</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,01</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>6,77</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>5,36</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,1</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7,16</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7,56</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,03</t>
+          <t>5,09</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 16,89</t>
+          <t>1,63; 4,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,68; 16,63</t>
+          <t>2,76; 11,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,69; 15,12</t>
+          <t>3,54; 8,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,77; 19,58</t>
+          <t>3,36; 11,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 9,51</t>
+          <t>2,86; 5,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 6,31</t>
+          <t>4,99; 9,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 11,73</t>
+          <t>3,24; 7,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,09; 21,14</t>
+          <t>2,48; 4,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,04; 10,61</t>
+          <t>2,79; 5,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,44; 12,0</t>
+          <t>4,56; 8,87</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,76; 11,23</t>
+          <t>3,96; 7,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,39; 15,48</t>
+          <t>3,38; 8,05</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,34</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,38</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,59</t>
+          <t>6,25</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,77</t>
+          <t>5,86</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,36</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>7,03</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>6,62</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>5,37</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>6,5</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,6</t>
+          <t>3,59; 8,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 11,11</t>
+          <t>2,33; 4,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,54; 8,95</t>
+          <t>2,41; 8,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 11,96</t>
+          <t>2,13; 15,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,93</t>
+          <t>2,62; 6,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,99; 9,83</t>
+          <t>3,52; 10,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,24; 7,88</t>
+          <t>3,8; 7,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 4,32</t>
+          <t>3,52; 14,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,04</t>
+          <t>3,36; 6,71</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,56; 8,87</t>
+          <t>3,15; 7,44</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,96; 7,28</t>
+          <t>3,64; 7,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,31; 7,87</t>
+          <t>3,57; 13,03</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,16</t>
+          <t>11,08</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>13,26</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,23</t>
+          <t>8,44</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,86</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>7,18</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,66</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>8,19</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5,09</t>
+          <t>9,29</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>6,92</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,59; 8,78</t>
+          <t>5,43; 22,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 4,46</t>
+          <t>2,73; 4,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,41; 8,46</t>
+          <t>4,97; 37,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,03; 15,54</t>
+          <t>6,07; 14,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 6,54</t>
+          <t>2,99; 11,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,52; 10,47</t>
+          <t>3,43; 8,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,8; 7,67</t>
+          <t>4,54; 11,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,22; 13,68</t>
+          <t>3,7; 7,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,71</t>
+          <t>4,93; 14,46</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,15; 7,44</t>
+          <t>3,63; 6,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,64; 7,07</t>
+          <t>5,96; 18,96</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,45; 12,77</t>
+          <t>5,14; 9,51</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,08</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,26</t>
+          <t>8,02</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,37</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,29</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,18</t>
+          <t>6,29</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,19</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>9,29</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>6,86</t>
+          <t>6,61</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,43; 22,37</t>
+          <t>4,87; 12,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,73; 4,81</t>
+          <t>4,02; 7,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,97; 37,29</t>
+          <t>5,33; 14,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,02; 14,16</t>
+          <t>5,3; 10,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,99; 11,28</t>
+          <t>3,41; 6,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,43; 8,44</t>
+          <t>4,41; 6,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,54; 11,14</t>
+          <t>4,92; 8,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,7; 7,54</t>
+          <t>4,36; 9,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,93; 14,46</t>
+          <t>4,36; 7,7</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,63; 6,66</t>
+          <t>4,61; 6,61</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,96; 18,96</t>
+          <t>5,74; 9,92</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,09; 9,45</t>
+          <t>5,25; 8,8</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>7,29</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>5,49</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>8,02</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>7,07</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>4,43</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>5,5</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>6,29</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>5,79</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>5,59</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>5,5</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>7,08</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>6,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>4,87; 12,32</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>4,02; 7,87</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>5,33; 14,17</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>5,18; 9,85</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>3,41; 6,13</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>4,41; 6,92</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>4,92; 8,08</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>4,3; 9,05</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>4,36; 7,7</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>4,61; 6,61</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>5,74; 9,92</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>5,16; 8,59</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/Q20C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q20C-Habitat-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,7; 16,89</t>
+          <t>1,71; 16,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,96; 15,0</t>
+          <t>4,84; 14,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,08; 15,28</t>
+          <t>5,21; 16,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,32; 17,46</t>
+          <t>3,51; 17,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 6,58</t>
+          <t>1,91; 6,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,13</t>
+          <t>2,37; 4,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,65; 12,74</t>
+          <t>3,45; 11,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,13; 21,41</t>
+          <t>4,03; 22,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,6; 8,94</t>
+          <t>2,38; 8,87</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,0; 9,37</t>
+          <t>4,04; 9,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,34; 12,43</t>
+          <t>5,22; 12,58</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,49; 14,34</t>
+          <t>4,41; 14,48</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,6</t>
+          <t>1,78; 4,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 11,11</t>
+          <t>2,87; 10,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,54; 8,95</t>
+          <t>3,49; 8,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 11,85</t>
+          <t>3,45; 12,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,93</t>
+          <t>2,84; 6,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,99; 9,83</t>
+          <t>4,94; 10,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,24; 7,88</t>
+          <t>3,35; 7,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,48; 4,33</t>
+          <t>2,49; 4,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,04</t>
+          <t>2,84; 5,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,56; 8,87</t>
+          <t>4,68; 9,01</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 7,28</t>
+          <t>3,91; 7,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,38; 8,05</t>
+          <t>3,25; 7,79</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,59; 8,78</t>
+          <t>3,52; 8,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,33; 4,46</t>
+          <t>2,34; 4,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 8,46</t>
+          <t>2,45; 8,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 15,35</t>
+          <t>2,22; 15,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,62; 6,54</t>
+          <t>2,61; 6,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,52; 10,47</t>
+          <t>3,31; 9,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 7,67</t>
+          <t>3,83; 7,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,52; 14,74</t>
+          <t>3,09; 14,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,71</t>
+          <t>3,41; 6,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,15; 7,44</t>
+          <t>3,1; 7,35</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,64; 7,07</t>
+          <t>3,73; 7,25</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,57; 13,03</t>
+          <t>3,16; 12,67</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,43; 22,37</t>
+          <t>5,33; 25,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 4,81</t>
+          <t>2,72; 4,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,97; 37,29</t>
+          <t>4,88; 37,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,07; 14,32</t>
+          <t>6,07; 13,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 11,28</t>
+          <t>3,19; 10,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,43; 8,44</t>
+          <t>3,54; 8,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,54; 11,14</t>
+          <t>4,31; 10,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 7,58</t>
+          <t>3,58; 7,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,93; 14,46</t>
+          <t>5,08; 15,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,63; 6,66</t>
+          <t>3,66; 6,68</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,96; 18,96</t>
+          <t>5,43; 17,85</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 9,51</t>
+          <t>5,33; 10,21</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,87; 12,32</t>
+          <t>4,95; 12,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,02; 7,87</t>
+          <t>4,03; 7,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,33; 14,17</t>
+          <t>5,69; 14,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,3; 10,04</t>
+          <t>5,2; 10,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,13</t>
+          <t>3,37; 5,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,41; 6,92</t>
+          <t>4,44; 6,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,92; 8,08</t>
+          <t>4,93; 8,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,36; 9,52</t>
+          <t>4,32; 9,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,36; 7,7</t>
+          <t>4,4; 7,61</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,61; 6,61</t>
+          <t>4,6; 6,76</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,74; 9,92</t>
+          <t>5,71; 9,91</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,25; 8,8</t>
+          <t>5,2; 8,54</t>
         </is>
       </c>
     </row>
